--- a/Assets/Excel/TalkExcel.xlsx
+++ b/Assets/Excel/TalkExcel.xlsx
@@ -1,181 +1,634 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baegj\Documents\GitHub\2025-1Contest\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAD0F74-0D09-47E3-AD87-F72ECCE68B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCE39B7-6853-4A8D-B5EC-1F2D96C8D7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Text" sheetId="1" r:id="rId1"/>
+    <sheet name="StoryTalk" sheetId="1" r:id="rId1"/>
+    <sheet name="NPCTalk" sheetId="2" r:id="rId2"/>
+    <sheet name="InfoTalk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="47VCXXpx4WKZ2koKnt3uaxnduvJRtcMQK6MzmanO0b0="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>아무도 없이 대화창만 나옴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이드아웃 후 주인공이 화냄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>신이 울며 사과함</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공이 웃음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>speaker</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>methodName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>startInvoke</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenHide</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 영역에 있는 주문서를 클릭해봐요~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문을 확인했다면 창을 닫고 상점을 가봅시다!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>참 잘했어요! 구매한 물건은 요정의 주머니에서 볼 수 있어요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업대를 열어볼까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 여기에 재료를 올려 봅시다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 재료들을 조합해 볼까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 잘하셨습니다! \n잘못 조합하면 실패한 물건이 나오니 주의하세요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟁반으로 옮겨보세요! \n그리고 벨을 누르면 제출됩니다!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>참 잘하셨어요! 손님을 받을수록 위의 위험도 게이지가 올라가니 조심하세요~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 우리들의 조력자는 이곳에 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜잔~ 우리의 정보 상인 전.서.구!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 아 여보세요? \n잘 들리나요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저입니다!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 전서구로 손님을 받던 도중 제게 연락할 수 있습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니 이 전서구를 요령 있게! 사용하시길 바랍니다!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialStart</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 잉크를 찾아 구매해볼까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에서 두루마리와 잉크를 꺼내볼까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialFinish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 이 스크롤을 손님에게 드릴까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾹 눌러서 사용해볼까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 이 세계에 빠진 건, 어느 신의 실수였다.</t>
+  </si>
+  <si>
+    <t>난 그저… 포근한 침대에 뒹굴거리며 폰을 보고 있었는데…</t>
+  </si>
+  <si>
+    <t>저런 신이!!!</t>
+  </si>
+  <si>
+    <t>지금 화 안내게 생겼어?!</t>
+  </si>
+  <si>
+    <t>너 때문에 이게 뭐야?! 쌩판 모르는 나라잖아!!</t>
+  </si>
+  <si>
+    <t>에이… 이래봐도 제가 만든 세계라고요…</t>
+  </si>
+  <si>
+    <t>조금 있으시다보면 마음에 들걸요?</t>
+  </si>
+  <si>
+    <t>그런 마음 1도 없어!</t>
+  </si>
+  <si>
+    <t>이런 곳에서 아무 것도 없이 어떻게 살란 말이야!</t>
+  </si>
+  <si>
+    <t>괜찮습니다! 그런 당신을 위해 준비했죠!</t>
+  </si>
+  <si>
+    <t>암시장~~</t>
+  </si>
+  <si>
+    <t>?... 암시장이라고?</t>
+  </si>
+  <si>
+    <t>네!</t>
+  </si>
+  <si>
+    <t>그게 말이야?! 난 선량한 사람이라고!</t>
+  </si>
+  <si>
+    <t>괜찮아요~ 그래도 신이 마련해주는 직장인데 무슨 일이 있겠어요?</t>
+  </si>
+  <si>
+    <t>아마도… 없을텐데!</t>
+  </si>
+  <si>
+    <t>뭐?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">별일 있으면 언제든지 말씀해주시고요~ </t>
+  </si>
+  <si>
+    <t>자! 이제 일을 배워볼까요?!</t>
+  </si>
+  <si>
+    <t>아이고오… 화내지는 말고 우리 진정해봐요~</t>
   </si>
   <si>
     <t>ScreenFadeOut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>next</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>speaker</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>face</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>methodName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>startInvoke</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenHide</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업 영역에 있는 주문서를 클릭해봐요~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님이 등장했어요~\n주문서를 받아볼까요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문을 확인했다면 창을 닫고 상점을 가봅시다!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>참 잘했어요! 구매한 물건은 요정의 주머니에서 볼 수 있어요!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업대를 열어볼까요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 여기에 재료를 올려 봅시다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 재료들을 조합해 볼까요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>아주 잘하셨습니다! \n잘못 조합하면 실패한 물건이 나오니 주의하세요!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 이 반지를 손님에게 드릴까요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>쟁반으로 옮겨보세요! \n그리고 벨을 누르면 제출됩니다!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>참 잘하셨어요! 손님을 받을수록 위의 위험도 게이지가 올라가니 조심하세요~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 우리들의 조력자는 이곳에 있습니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜잔~ 우리의 정보 상인 전.서.구!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭해서 사용해볼까요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>… 아 여보세요? \n잘 들리나요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>저입니다!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 전서구로 손님을 받던 도중 제게 연락할 수 있습니다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>800원으로 정보를 살 수 있으니 많은 관심 부탁드려요~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>네? 무슨 정보를 사냐구요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>…. 왕실에서 보낸 스파이라던가, 그런 것들 있잖아요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러니 이 전서구를 요령 있게! 사용하시길 바랍니다!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자. 이제 더 이상 알려 드릴 건 없습니다! 앞으로의 N일 동안 열심히 해주세요!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TutorialStart</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점에서 잉크를 찾아 구매해볼까요?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기에서 두루마리와 잉크를 꺼내볼까요?</t>
+  </si>
+  <si>
+    <t>아! 마침 연락해 주셨군요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>….. (연락을 받지 않는다)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네? 무슨 일이시죠?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>800원으로 연결할 수 있으니 많은 관심 부탁드려요~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네? 연락해서 뭘 할 수 있냐고요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…. 왕실에서 보낸 스파이라던가, 그런 정보들 있잖아요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 정보들을 주거나 각종 애로사항을 해결해 주기도 한답니다!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돈이 다 떨어졌다고요?!</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>음.......</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네 그러면 지원금을 좀 보내드리겠습니다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 이번만이에요! 제가 도와주는 것도 한계가 있으니까요…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyAdd</t>
+  </si>
+  <si>
+    <t>어제 그쪽으로 왕실의 스파이가 갔었어요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 주문을 들어 줬었다면, 그 사람을 어떻게든 처리해야 할 거예요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>...아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상점 재고가 얼마 없군요! 보충해 드리겠습니다!</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네... 보충 완료되었습니다! 그럼 계속 수고하세요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCTalk</t>
+  </si>
+  <si>
+    <t>NPCTalk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>….까먹었구먼! 허허 시간 뺏어서 미안하네</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사람의 주문을 들어 주셨었나요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사람 말이야, 좀 수상한 것 같아.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 감 하나는 좋은 거 알잖나. 아무쪼록 조심하라구</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillSpy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restock</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>…........</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>……실력이 좋군요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…..하….....</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>….혹시 거슬리는 사람이 있진 않으십니까?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000 골드만 주시면 흔적도 없이 처리해 드리죠…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아… 제안은 감사하지만 돈이 모자란데…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>….아쉽군요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 괜찮습니다. 딱히 거슬리는 사람은 없네요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…알겠습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 한 사람 있긴 한데,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사람을 좀 없애줄 수 있을까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋습니다…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신문에서 뵙죠.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만일세! 오늘은 이 물건으로 좀 부탁하지.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>호오.. 역시 자네야! 실력 하난 끝내준다니까.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 저기 있잖나…..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 오늘 상태가 별로인가 보구만. 일도 좋지만 좀 쉬라고.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오호! 여기가 새로 생겼다는 상점이군!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyAdd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenFadeIn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveScene</t>
+  </si>
+  <si>
+    <t>MoveScene</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 일을 시작한지 어언 일주일이 다 되어간다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 은근 적성에 잘 맞는거 아냐?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈도 이렇게 잘 벌고… \n이 정도면 왕국쯤이야…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>과연 그럴까요…?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아… 아니에요..! 다시…\n하면… 괜찮을지도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>의외로 평화롭게 잘 지내고 있는 듯 하다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 왕이 되기엔… \n좀 그렇고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 생활이 좀 더 만족스럽달까?!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 왕이 안되셔도 괜찮아요? \n제 도움은 여기까지 입니다?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>암시장이 선의 일은 아니지만 뭐…\n언젠가 왕하면 되지~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…당신의 선택을 존중합니다!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는…\n정말 열심히 살아왔다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말이지! 나의 일머리란~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 열심히 하셨죠~\n다행이에요! 제가 따로 조치를 안해도…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐?!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이, 아닙니다!\n정말 열심히 해주셨다고요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래… \n그럼 이제 이 이불에서 눈을 떠볼까..?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시! 믿고 맡기길 잘했구만!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>에잉~ 시간만 날렸어…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입 사장 실력 좀 볼까?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오~ 신입치곤 꽤 좋은 실력이구만?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 기대는 안했어~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>과연 이 의뢰를 해결할 수 있을까?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 좋은 실력이군 그래~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>훗, 역시 별 볼일 없는 곳이였군.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고가 없을때도 연락해 주시면 채워 드리겠습니다!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문서를 받아볼까요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자. 이제 더 이상 알려 드릴 건 없습니다! 앞으로의 암시장 라이프를 열심히 즐겨 주세요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠… 내 주문이랑 맞진 않지만, 재능이 보이는구만.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpyWarning_NPC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>훌륭하군! 앞으로 자주 이용해야겠어.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 물건으로 빨리 부탁하겠네.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpyWarning_Info</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 결국 손님에게 배상금을 주지 못해 망하고 말았다…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무래도… 나는,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>장사 쪽으로는 재능이 없나보다….</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +636,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,6 +675,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -246,10 +749,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -280,9 +784,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{0B139D24-AE63-4DC0-898F-A2C25CE86760}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -517,25 +1050,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -550,13 +1083,15 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>1</v>
       </c>
@@ -568,18 +1103,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
@@ -591,13 +1128,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="1"/>
@@ -607,20 +1144,18 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -631,18 +1166,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -652,18 +1185,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -673,18 +1204,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -694,18 +1223,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -715,18 +1242,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="1">
-        <v>6</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -736,18 +1261,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="1">
-        <v>7</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -757,18 +1280,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>17</v>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="1">
-        <v>8</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -778,19 +1299,23 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="1">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -799,18 +1324,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -820,18 +1343,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -841,18 +1362,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="1">
-        <v>11</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -862,18 +1381,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="1">
-        <v>12</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -883,18 +1400,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -904,18 +1419,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="1">
-        <v>13</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -925,39 +1438,37 @@
         <v>1</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>25</v>
+      <c r="D20" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="1">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -967,17 +1478,17 @@
         <v>1</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -988,17 +1499,17 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1015,11 +1526,11 @@
         <v>5</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1033,14 +1544,14 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1054,14 +1565,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1075,14 +1586,14 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1096,14 +1607,14 @@
         <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1111,239 +1622,443 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <v>11</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>12</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <v>13</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="7"/>
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E46" s="7"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="1"/>
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1351,10 +2066,18 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1362,32 +2085,66 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="1"/>
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="E53" s="7"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1395,10 +2152,18 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="E54" s="7"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1406,32 +2171,66 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="1"/>
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="E57" s="7"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1439,10 +2238,18 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="E58" s="7"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1450,10 +2257,18 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="E59" s="7"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1461,10 +2276,18 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="7"/>
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>6</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1472,10 +2295,18 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="7"/>
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="E61" s="7"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1483,32 +2314,66 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="1"/>
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>6</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A63" s="1"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A64" s="1"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="7"/>
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="E64" s="7"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1516,10 +2381,18 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="7"/>
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="E65" s="7"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1527,10 +2400,18 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="7"/>
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="E66" s="7"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1538,10 +2419,18 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="7"/>
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E67" s="7"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1549,10 +2438,18 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="7"/>
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="E68" s="7"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -1560,12 +2457,24 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="1"/>
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -1575,8 +2484,6 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -1649,8 +2556,8 @@
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="1"/>
@@ -1660,8 +2567,8 @@
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="1"/>
@@ -1671,8 +2578,8 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="1"/>
@@ -1682,8 +2589,8 @@
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="1"/>
@@ -1693,8 +2600,8 @@
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="1"/>
@@ -1704,8 +2611,8 @@
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="1"/>
@@ -1715,8 +2622,8 @@
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="1"/>
@@ -1726,8 +2633,8 @@
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="1"/>
@@ -1737,8 +2644,8 @@
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="1"/>
@@ -1748,8 +2655,8 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="1"/>
@@ -1759,8 +2666,8 @@
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="1"/>
@@ -1770,8 +2677,8 @@
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="1"/>
@@ -1781,8 +2688,8 @@
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="1"/>
@@ -1792,8 +2699,8 @@
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="1"/>
@@ -1803,10 +2710,10 @@
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -1814,8 +2721,8 @@
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="1"/>
@@ -1825,8 +2732,8 @@
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="1"/>
@@ -1836,8 +2743,8 @@
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="1"/>
@@ -1847,8 +2754,8 @@
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="1"/>
@@ -1858,8 +2765,8 @@
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="1"/>
@@ -1869,8 +2776,8 @@
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="1"/>
@@ -1880,8 +2787,8 @@
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="1"/>
@@ -1891,8 +2798,8 @@
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="1"/>
@@ -1902,8 +2809,8 @@
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="1"/>
@@ -1913,8 +2820,8 @@
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="1"/>
@@ -1924,8 +2831,8 @@
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="1"/>
@@ -1935,8 +2842,8 @@
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="1"/>
@@ -1946,8 +2853,8 @@
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="1"/>
@@ -1957,8 +2864,8 @@
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="1"/>
@@ -1968,8 +2875,8 @@
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="1"/>
@@ -1979,8 +2886,8 @@
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="1"/>
@@ -1990,8 +2897,8 @@
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="1"/>
@@ -2001,8 +2908,8 @@
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="1"/>
@@ -2168,8 +3075,8 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -2739,9 +3646,9 @@
     <row r="176" spans="1:9" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -2751,8 +3658,8 @@
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -2762,8 +3669,8 @@
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -2773,8 +3680,8 @@
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -3102,9 +4009,9 @@
     <row r="209" spans="1:9" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -3114,8 +4021,8 @@
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -3125,8 +4032,8 @@
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="7"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -3136,8 +4043,8 @@
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -3666,7 +4573,7 @@
       <c r="C260" s="1"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
-      <c r="F260" s="6"/>
+      <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -3754,6 +4661,7 @@
       <c r="C268" s="1"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
+      <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -3764,6 +4672,7 @@
       <c r="C269" s="1"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
+      <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -3857,174 +4766,403 @@
       <c r="I277" s="1"/>
     </row>
     <row r="278" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
     </row>
     <row r="279" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
     </row>
     <row r="280" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
     </row>
     <row r="281" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
     </row>
     <row r="282" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
     </row>
     <row r="283" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
     </row>
     <row r="284" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
     </row>
     <row r="285" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
     </row>
     <row r="286" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
     </row>
     <row r="287" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
     </row>
     <row r="288" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-    </row>
-    <row r="289" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-    </row>
-    <row r="291" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-    </row>
-    <row r="292" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-    </row>
-    <row r="294" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-    </row>
-    <row r="295" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-    </row>
-    <row r="297" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-    </row>
-    <row r="298" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-    </row>
-    <row r="299" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-    </row>
-    <row r="300" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-    </row>
-    <row r="301" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-    </row>
-    <row r="304" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-    </row>
-    <row r="306" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-    </row>
-    <row r="307" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-    </row>
-    <row r="308" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-    </row>
-    <row r="309" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-    </row>
-    <row r="310" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-    </row>
-    <row r="311" spans="4:5" ht="15.75" customHeight="1">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="7"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="7"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="7"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="7"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+    </row>
+    <row r="304" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="7"/>
+      <c r="E304" s="7"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="7"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+    </row>
+    <row r="306" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="7"/>
+      <c r="E306" s="7"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+    </row>
+    <row r="310" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+    </row>
+    <row r="311" spans="1:9" ht="15.75" customHeight="1">
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
     </row>
-    <row r="312" spans="4:5" ht="15.75" customHeight="1">
+    <row r="312" spans="1:9" ht="15.75" customHeight="1">
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
     </row>
-    <row r="313" spans="4:5" ht="15.75" customHeight="1">
+    <row r="313" spans="1:9" ht="15.75" customHeight="1">
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
     </row>
-    <row r="314" spans="4:5" ht="15.75" customHeight="1">
+    <row r="314" spans="1:9" ht="15.75" customHeight="1">
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
     </row>
-    <row r="315" spans="4:5" ht="15.75" customHeight="1">
+    <row r="315" spans="1:9" ht="15.75" customHeight="1">
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
     </row>
-    <row r="316" spans="4:5" ht="15.75" customHeight="1">
+    <row r="316" spans="1:9" ht="15.75" customHeight="1">
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
     </row>
-    <row r="317" spans="4:5" ht="15.75" customHeight="1">
+    <row r="317" spans="1:9" ht="15.75" customHeight="1">
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
     </row>
-    <row r="318" spans="4:5" ht="15.75" customHeight="1">
+    <row r="318" spans="1:9" ht="15.75" customHeight="1">
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
     </row>
-    <row r="319" spans="4:5" ht="15.75" customHeight="1">
+    <row r="319" spans="1:9" ht="15.75" customHeight="1">
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
     </row>
-    <row r="320" spans="4:5" ht="15.75" customHeight="1">
+    <row r="320" spans="1:9" ht="15.75" customHeight="1">
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
     </row>
@@ -6747,10 +7885,784 @@
     <row r="1000" spans="4:5" ht="15.75" customHeight="1">
       <c r="D1000" s="2"/>
       <c r="E1000" s="2"/>
+    </row>
+    <row r="1001" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+    </row>
+    <row r="1002" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+    </row>
+    <row r="1003" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+    </row>
+    <row r="1004" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+    </row>
+    <row r="1005" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+    </row>
+    <row r="1006" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+    </row>
+    <row r="1007" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+    </row>
+    <row r="1008" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+    </row>
+    <row r="1009" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+    </row>
+    <row r="1010" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+    </row>
+    <row r="1011" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+    </row>
+    <row r="1012" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="2"/>
+    </row>
+    <row r="1013" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1013" s="2"/>
+      <c r="E1013" s="2"/>
+    </row>
+    <row r="1014" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1014" s="2"/>
+      <c r="E1014" s="2"/>
+    </row>
+    <row r="1015" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1015" s="2"/>
+      <c r="E1015" s="2"/>
+    </row>
+    <row r="1016" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1016" s="2"/>
+      <c r="E1016" s="2"/>
+    </row>
+    <row r="1017" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="2"/>
+    </row>
+    <row r="1018" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1018" s="2"/>
+      <c r="E1018" s="2"/>
+    </row>
+    <row r="1019" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1019" s="2"/>
+      <c r="E1019" s="2"/>
+    </row>
+    <row r="1020" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1020" s="2"/>
+      <c r="E1020" s="2"/>
+    </row>
+    <row r="1021" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="2"/>
+    </row>
+    <row r="1022" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="2"/>
+    </row>
+    <row r="1023" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="2"/>
+    </row>
+    <row r="1024" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="2"/>
+    </row>
+    <row r="1025" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="2"/>
+    </row>
+    <row r="1026" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="2"/>
+    </row>
+    <row r="1027" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="2"/>
+    </row>
+    <row r="1028" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="2"/>
+    </row>
+    <row r="1029" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="2"/>
+    </row>
+    <row r="1030" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1030" s="2"/>
+      <c r="E1030" s="2"/>
+    </row>
+    <row r="1031" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1031" s="2"/>
+      <c r="E1031" s="2"/>
+    </row>
+    <row r="1032" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1032" s="2"/>
+      <c r="E1032" s="2"/>
+    </row>
+    <row r="1033" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1033" s="2"/>
+      <c r="E1033" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C1FEAD-F83F-4367-8816-90683C096F83}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0C702D-8203-4191-AA10-DF98BCE77303}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="81.140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>5000</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Excel/TalkExcel.xlsx
+++ b/Assets/Excel/TalkExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baegj\Documents\GitHub\2025-1Contest\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCE39B7-6853-4A8D-B5EC-1F2D96C8D7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA4A4E5-B2A3-4BDA-88BE-DAF200C8106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>next</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -470,10 +470,6 @@
   </si>
   <si>
     <t>오호! 여기가 새로 생겼다는 상점이군!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoneyAdd</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1030,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1484,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="1">
@@ -1967,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="1">
@@ -2009,7 +2005,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>26</v>
@@ -2028,14 +2024,12 @@
       <c r="B48" s="3">
         <v>0</v>
       </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2054,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="1"/>
@@ -2073,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="1"/>
@@ -2092,13 +2086,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -2114,14 +2108,12 @@
       <c r="B52" s="3">
         <v>0</v>
       </c>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -2140,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="1"/>
@@ -2159,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="1"/>
@@ -2181,10 +2173,10 @@
         <v>6</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -2200,14 +2192,12 @@
       <c r="B56" s="3">
         <v>0</v>
       </c>
-      <c r="C56" s="3">
-        <v>0</v>
-      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2226,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="1"/>
@@ -2245,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="1"/>
@@ -2264,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="1"/>
@@ -2283,10 +2273,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="1"/>
@@ -2302,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="1"/>
@@ -2321,13 +2311,13 @@
         <v>2</v>
       </c>
       <c r="C62" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F62" s="1">
         <v>3</v>
@@ -2343,14 +2333,12 @@
       <c r="B63" s="3">
         <v>0</v>
       </c>
-      <c r="C63" s="3">
-        <v>0</v>
-      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -2369,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="1"/>
@@ -2388,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="1"/>
@@ -2407,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="1"/>
@@ -2426,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="1"/>
@@ -2445,10 +2433,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="1"/>
@@ -2464,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="C69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
@@ -8030,7 +8018,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8074,7 +8062,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -8085,7 +8073,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -8096,7 +8084,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -8107,7 +8095,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -8118,7 +8106,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -8129,7 +8117,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -8140,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -8151,7 +8139,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -8162,7 +8150,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -8184,7 +8172,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -8195,7 +8183,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -8418,7 +8406,7 @@
         <v>85</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -8434,12 +8422,7 @@
       <c r="D31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31">
-        <v>-5000</v>
-      </c>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32">
@@ -8453,6 +8436,9 @@
       </c>
       <c r="E32" s="13" t="s">
         <v>73</v>
+      </c>
+      <c r="F32">
+        <v>-5000</v>
       </c>
     </row>
   </sheetData>
@@ -8541,7 +8527,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4">
         <v>3</v>

--- a/Assets/Excel/TalkExcel.xlsx
+++ b/Assets/Excel/TalkExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baegj\Documents\GitHub\2025-1Contest\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA4A4E5-B2A3-4BDA-88BE-DAF200C8106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097E091B-515B-4946-ADB3-A20E637ADB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
   <si>
     <t>next</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -387,10 +387,6 @@
   </si>
   <si>
     <t>….혹시 거슬리는 사람이 있진 않으십니까?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000 골드만 주시면 흔적도 없이 처리해 드리죠…</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -496,10 +492,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>과연 그럴까요…?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>아… 아니에요..! 다시…\n하면… 괜찮을지도</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -625,6 +617,37 @@
   </si>
   <si>
     <t>장사 쪽으로는 재능이 없나보다….</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000 골드만 주시면 흔적도 없이 처리해 드리죠…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenHide</t>
+  </si>
+  <si>
+    <t>정말 그럴지도 모르겠네요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 무엇을 찾으시나요 손님?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>??? : 당신이 이 암시장 주인이요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>??? : 저희와 같이 가 주셔야겠습니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?! 잠깐! 이거 놓지 못해?!!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이봐 신! 별 일 없을 거라고 했잖아!!! 어떻게든 해봐! </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1024,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1033"/>
+  <dimension ref="A1:I1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1480,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="1">
@@ -1963,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="1">
@@ -2005,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>26</v>
@@ -2026,10 +2049,10 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2051,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="1"/>
@@ -2070,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="1"/>
@@ -2080,7 +2103,7 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
@@ -2089,13 +2112,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2110,17 +2127,11 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
@@ -2132,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="1"/>
@@ -2148,13 +2159,11 @@
         <v>1</v>
       </c>
       <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="1"/>
@@ -2164,47 +2173,43 @@
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
       <c r="D56" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
@@ -2213,17 +2218,21 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3">
         <v>0</v>
       </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
@@ -2238,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="1"/>
@@ -2254,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="1"/>
@@ -2267,19 +2276,23 @@
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="C60" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2289,39 +2302,39 @@
         <v>1</v>
       </c>
       <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
         <v>0</v>
       </c>
-      <c r="B62" s="3">
-        <v>2</v>
-      </c>
-      <c r="C62" s="3">
-        <v>5</v>
-      </c>
       <c r="D62" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="1">
-        <v>3</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2331,21 +2344,17 @@
         <v>1</v>
       </c>
       <c r="B63" s="3">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
       <c r="D63" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
@@ -2357,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="1"/>
@@ -2373,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="1"/>
@@ -2392,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="3">
         <v>4</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="1"/>
@@ -2408,19 +2417,23 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="3">
+        <v>5</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="1">
         <v>3</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2430,57 +2443,75 @@
         <v>1</v>
       </c>
       <c r="B68" s="3">
-        <v>2</v>
-      </c>
-      <c r="C68" s="3">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="C69" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="1">
-        <v>3</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="7"/>
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="7"/>
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="E71" s="7"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2488,10 +2519,18 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="7"/>
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2499,10 +2538,18 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="7"/>
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3">
+        <v>4</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="E73" s="7"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2510,12 +2557,24 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="1"/>
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3</v>
+      </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -2525,8 +2584,6 @@
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -2907,8 +2964,8 @@
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="1"/>
@@ -2918,8 +2975,8 @@
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="1"/>
@@ -2929,8 +2986,8 @@
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="1"/>
@@ -2940,8 +2997,8 @@
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="1"/>
@@ -2951,8 +3008,8 @@
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="1"/>
@@ -3063,8 +3120,8 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -3118,8 +3175,8 @@
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -3997,9 +4054,9 @@
     <row r="209" spans="1:9" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="7"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -4009,8 +4066,8 @@
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -4020,8 +4077,8 @@
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -4031,8 +4088,8 @@
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -4052,9 +4109,9 @@
     <row r="214" spans="1:9" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -4064,8 +4121,8 @@
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -4075,8 +4132,8 @@
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -4086,8 +4143,8 @@
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -4924,7 +4981,7 @@
       <c r="C293" s="1"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
-      <c r="F293" s="6"/>
+      <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -4979,7 +5036,7 @@
       <c r="C298" s="1"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
-      <c r="F298" s="1"/>
+      <c r="F298" s="6"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -5012,6 +5069,7 @@
       <c r="C301" s="1"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
+      <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -5022,6 +5080,7 @@
       <c r="C302" s="1"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
+      <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -5065,7 +5124,6 @@
       <c r="C306" s="1"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
-      <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
@@ -5076,7 +5134,6 @@
       <c r="C307" s="1"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
-      <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
@@ -5115,24 +5172,59 @@
       <c r="I310" s="1"/>
     </row>
     <row r="311" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
     </row>
     <row r="312" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
     </row>
     <row r="313" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
     </row>
     <row r="314" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
     </row>
     <row r="315" spans="1:9" ht="15.75" customHeight="1">
-      <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
     </row>
     <row r="316" spans="1:9" ht="15.75" customHeight="1">
       <c r="D316" s="2"/>
@@ -8005,6 +8097,26 @@
     <row r="1033" spans="4:5" ht="15.75" customHeight="1">
       <c r="D1033" s="2"/>
       <c r="E1033" s="2"/>
+    </row>
+    <row r="1034" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1034" s="2"/>
+      <c r="E1034" s="2"/>
+    </row>
+    <row r="1035" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1035" s="2"/>
+      <c r="E1035" s="2"/>
+    </row>
+    <row r="1036" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1036" s="2"/>
+      <c r="E1036" s="2"/>
+    </row>
+    <row r="1037" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1037" s="2"/>
+      <c r="E1037" s="2"/>
+    </row>
+    <row r="1038" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D1038" s="2"/>
+      <c r="E1038" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8017,8 +8129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C1FEAD-F83F-4367-8816-90683C096F83}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8062,7 +8174,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -8073,7 +8185,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -8084,7 +8196,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -8095,7 +8207,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -8106,7 +8218,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -8117,7 +8229,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -8128,7 +8240,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -8139,7 +8251,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -8150,7 +8262,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -8161,7 +8273,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -8172,7 +8284,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -8183,7 +8295,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -8194,7 +8306,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -8205,7 +8317,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>67</v>
@@ -8222,7 +8334,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
         <v>66</v>
@@ -8231,7 +8343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17">
         <v>0</v>
       </c>
@@ -8239,7 +8351,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>69</v>
@@ -8248,7 +8360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18">
         <v>0</v>
       </c>
@@ -8259,7 +8371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19">
         <v>1</v>
       </c>
@@ -8270,7 +8382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20">
         <v>0</v>
       </c>
@@ -8281,7 +8393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21">
         <v>0</v>
       </c>
@@ -8292,7 +8404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22">
         <v>0</v>
       </c>
@@ -8309,7 +8421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23">
         <v>0</v>
       </c>
@@ -8326,7 +8438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -8337,7 +8449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25">
         <v>0</v>
       </c>
@@ -8345,13 +8457,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8359,10 +8471,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27">
         <v>0</v>
       </c>
@@ -8370,10 +8482,10 @@
         <v>7</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8381,10 +8493,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29">
         <v>0</v>
       </c>
@@ -8392,10 +8504,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8403,16 +8515,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8420,11 +8532,11 @@
         <v>8</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5">
+    <row r="32" spans="1:7" ht="16.5">
       <c r="A32">
         <v>0</v>
       </c>
@@ -8432,13 +8544,16 @@
         <v>7</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>73</v>
       </c>
       <c r="F32">
-        <v>-5000</v>
+        <v>-8000</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8527,7 +8642,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4">
         <v>3</v>
